--- a/result/NIKKEI.xlsx
+++ b/result/NIKKEI.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\develop\git\github\UsoWhat\WhatIsThis\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C73980D-8D4C-4F6B-B031-4610115CEE15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EEAC073-35DD-460B-86F4-A20FF785CE25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24345" yWindow="5355" windowWidth="30360" windowHeight="17295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="parameters" sheetId="1" r:id="rId1"/>
+    <sheet name="select" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$Y$1001</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">parameters!$B$1:$Y$1001</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4024" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4069" uniqueCount="44">
   <si>
     <t>No</t>
   </si>
@@ -149,6 +150,13 @@
   </si>
   <si>
     <t>check</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Check</t>
+  </si>
+  <si>
+    <t>pa</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -561,12 +569,15 @@
   <dimension ref="A1:Y1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1010" sqref="E1010"/>
+      <selection activeCell="F1030" sqref="F1030"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:25" s="2" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -62694,4 +62705,419 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37DCE04E-F208-45AA-A187-7C1072BA7732}">
+  <dimension ref="A1:X6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>414</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2">
+        <v>12</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>6</v>
+      </c>
+      <c r="L2">
+        <v>450</v>
+      </c>
+      <c r="M2">
+        <v>350</v>
+      </c>
+      <c r="N2">
+        <v>400</v>
+      </c>
+      <c r="O2">
+        <v>0.1</v>
+      </c>
+      <c r="P2">
+        <v>5</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>995</v>
+      </c>
+      <c r="S2">
+        <v>31001</v>
+      </c>
+      <c r="T2">
+        <v>0.57989949748743719</v>
+      </c>
+      <c r="U2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V2">
+        <v>70</v>
+      </c>
+      <c r="W2">
+        <v>70</v>
+      </c>
+      <c r="X2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>997</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3">
+        <v>16</v>
+      </c>
+      <c r="J3">
+        <v>30</v>
+      </c>
+      <c r="K3">
+        <v>11</v>
+      </c>
+      <c r="L3">
+        <v>350</v>
+      </c>
+      <c r="M3">
+        <v>250</v>
+      </c>
+      <c r="N3">
+        <v>250</v>
+      </c>
+      <c r="O3">
+        <v>0.1</v>
+      </c>
+      <c r="P3">
+        <v>5</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>8042</v>
+      </c>
+      <c r="S3">
+        <v>25458</v>
+      </c>
+      <c r="T3">
+        <v>0.21773190748570009</v>
+      </c>
+      <c r="U3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>959</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>1.6</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4">
+        <v>16</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>10</v>
+      </c>
+      <c r="L4">
+        <v>500</v>
+      </c>
+      <c r="M4">
+        <v>150</v>
+      </c>
+      <c r="N4">
+        <v>350</v>
+      </c>
+      <c r="O4">
+        <v>0.1</v>
+      </c>
+      <c r="P4">
+        <v>5</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>5550</v>
+      </c>
+      <c r="S4">
+        <v>23072</v>
+      </c>
+      <c r="T4">
+        <v>0.35099099099099101</v>
+      </c>
+      <c r="U4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>239</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5">
+        <v>18</v>
+      </c>
+      <c r="J5">
+        <v>30</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>450</v>
+      </c>
+      <c r="M5">
+        <v>100</v>
+      </c>
+      <c r="N5">
+        <v>350</v>
+      </c>
+      <c r="O5">
+        <v>0.1</v>
+      </c>
+      <c r="P5">
+        <v>5</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>1129</v>
+      </c>
+      <c r="S5">
+        <v>21152</v>
+      </c>
+      <c r="T5">
+        <v>0.51815766164747568</v>
+      </c>
+      <c r="U5" t="s">
+        <v>33</v>
+      </c>
+      <c r="V5">
+        <v>70</v>
+      </c>
+      <c r="W5">
+        <v>60</v>
+      </c>
+      <c r="X5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>434</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6">
+        <v>90</v>
+      </c>
+      <c r="F6">
+        <v>2.8</v>
+      </c>
+      <c r="G6">
+        <v>25</v>
+      </c>
+      <c r="H6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6">
+        <v>7</v>
+      </c>
+      <c r="J6">
+        <v>30</v>
+      </c>
+      <c r="K6">
+        <v>8</v>
+      </c>
+      <c r="L6">
+        <v>500</v>
+      </c>
+      <c r="M6">
+        <v>250</v>
+      </c>
+      <c r="N6">
+        <v>300</v>
+      </c>
+      <c r="O6">
+        <v>0.1</v>
+      </c>
+      <c r="P6">
+        <v>5</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>4884</v>
+      </c>
+      <c r="S6">
+        <v>19431</v>
+      </c>
+      <c r="T6">
+        <v>0.25307125307125311</v>
+      </c>
+      <c r="U6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>